--- a/Discover_Top_CategoriesEdureka.xlsx
+++ b/Discover_Top_CategoriesEdureka.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/perecharla-divya-sai_perecharla-divya-sai_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3058E579-5AA3-4DC6-ADBC-63BF07CF6E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="456" documentId="8_{3058E579-5AA3-4DC6-ADBC-63BF07CF6E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9E6C837-E7AC-4D1F-80D2-069AED6035DC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="3" xr2:uid="{5107C997-2FD6-4E04-B686-CBA28FB4128F}"/>
+    <workbookView minimized="1" xWindow="2880" yWindow="2880" windowWidth="14400" windowHeight="8170" firstSheet="3" activeTab="7" xr2:uid="{5107C997-2FD6-4E04-B686-CBA28FB4128F}"/>
   </bookViews>
   <sheets>
     <sheet name="AUT_participants_modules" sheetId="1" r:id="rId1"/>
     <sheet name="User stories" sheetId="2" r:id="rId2"/>
     <sheet name="Test Scenario" sheetId="3" r:id="rId3"/>
     <sheet name="Test Cases" sheetId="4" r:id="rId4"/>
+    <sheet name="Defect Report" sheetId="5" r:id="rId5"/>
+    <sheet name="RTM" sheetId="7" r:id="rId6"/>
+    <sheet name="Test Execution summary" sheetId="8" r:id="rId7"/>
+    <sheet name="Summary" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="268">
   <si>
     <t>Batch:</t>
   </si>
@@ -311,9 +315,6 @@
     <t>Verify Download Brochure button</t>
   </si>
   <si>
-    <t>Verify form validation with invalid data</t>
-  </si>
-  <si>
     <t>HomePage is loaded</t>
   </si>
   <si>
@@ -372,13 +373,6 @@
   </si>
   <si>
     <t>Click program link</t>
-  </si>
-  <si>
-    <t>1. Enter invalid email or phone
-2. Submit</t>
-  </si>
-  <si>
-    <t>Verify form validation with valid data</t>
   </si>
   <si>
     <t>1. Enter valid name, email, phone
@@ -390,10 +384,6 @@
 Phone: 9876543210</t>
   </si>
   <si>
-    <t>Email: abc
-Phone: 123</t>
-  </si>
-  <si>
     <t>Section visible</t>
   </si>
   <si>
@@ -427,9 +417,6 @@
     <t>Error message displayed</t>
   </si>
   <si>
-    <t>Brochure downloads successfully</t>
-  </si>
-  <si>
     <t>Section displayed</t>
   </si>
   <si>
@@ -448,9 +435,6 @@
     <t>Form remains</t>
   </si>
   <si>
-    <t>Brochure downloaded</t>
-  </si>
-  <si>
     <t>Homepage displayed</t>
   </si>
   <si>
@@ -479,13 +463,614 @@
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Enter only 9 digits in phone field and submit</t>
+  </si>
+  <si>
+    <t>Verify form validation with invalid email</t>
+  </si>
+  <si>
+    <t>Enter with invalid data</t>
+  </si>
+  <si>
+    <t>1. Enter invalid email 
+2. Submit</t>
+  </si>
+  <si>
+    <t>Email: abc</t>
+  </si>
+  <si>
+    <t>1. Enter 9 digits in  phone field
+2. Submit</t>
+  </si>
+  <si>
+    <t>Phone: 987654321</t>
+  </si>
+  <si>
+    <t>Error message not displayed</t>
+  </si>
+  <si>
+    <t>No error message</t>
+  </si>
+  <si>
+    <t>Enter with valid data</t>
+  </si>
+  <si>
+    <t>1. Enter invalid name, email, phone
+2. Submit</t>
+  </si>
+  <si>
+    <t>Name: Joh57181
+Email: john@
+Phone: 98765432</t>
+  </si>
+  <si>
+    <t>Brochure is downloaded</t>
+  </si>
+  <si>
+    <t>Brochure  downloaded</t>
+  </si>
+  <si>
+    <t>Error  message is displayed</t>
+  </si>
+  <si>
+    <t>Brochure Downloaded</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Defect Id.</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Priority</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Reported On</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>DF_Discover_Top_Categories_01</t>
+  </si>
+  <si>
+    <t>No error for invalid phone number</t>
+  </si>
+  <si>
+    <t>Discover_Top_Categories</t>
+  </si>
+  <si>
+    <t>Brochure download form accepts phone number with only 9 digits</t>
+  </si>
+  <si>
+    <t>1. Navigate to Edureka homepage
+2. Scroll to Discover Top Categories
+3. Click “Post Graduate Program in Generative AI and ML”
+4. Click “Download Brochure”
+5. Enter phone number with 9 digits
+6. Submit form</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>TR_ID</t>
+  </si>
+  <si>
+    <t>TS_ID</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>Defect_Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR_ID	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR_ID	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		Requirement Traceability Matrix					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		Application Under Test: Edureka				</t>
+  </si>
+  <si>
+    <t>TEST EXECUTION SUMMARY</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Pass Percentage</t>
+  </si>
+  <si>
+    <t>Fail Percentage</t>
+  </si>
+  <si>
+    <t>Complition Percentage</t>
+  </si>
+  <si>
+    <t>Total  Test Cases</t>
+  </si>
+  <si>
+    <t>Total Test Cases Executed</t>
+  </si>
+  <si>
+    <t>Total Test CasesPassed</t>
+  </si>
+  <si>
+    <t>Total Test CasesFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edureka Discove_Top_Categories	</t>
+  </si>
+  <si>
+    <t>BR_01</t>
+  </si>
+  <si>
+    <t>TR_02</t>
+  </si>
+  <si>
+    <t>TR_03</t>
+  </si>
+  <si>
+    <t>TR_04</t>
+  </si>
+  <si>
+    <t>TR_05</t>
+  </si>
+  <si>
+    <t>TS_01</t>
+  </si>
+  <si>
+    <t>TS_02</t>
+  </si>
+  <si>
+    <t>TS_03</t>
+  </si>
+  <si>
+    <t>TS_04</t>
+  </si>
+  <si>
+    <t>TS_05</t>
+  </si>
+  <si>
+    <t>Test Summary Report format</t>
+  </si>
+  <si>
+    <t>1. Test Objective:</t>
+  </si>
+  <si>
+    <t>The Discover Top Categories section on Edureka’s homepage allows users to explore various course categories, navigate to category 
+and subcategory pages, and download brochures for specific programs. It ensures smooth navigation and accurate display of categories for an enhanced user experience.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Application Overview:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>In-Scope:</t>
+  </si>
+  <si>
+    <t>Homepage display of “Discover Top Categories”
+Navigation to category and subcategory pages
+Navigation to program details page
+Brochure download functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Out of Scope:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Testing Scope:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Payment gateway
+Course enrollment process
+User profile settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium programs and subscription features
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Areas Not Covered:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Test Metrics</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total number of test cases planned</t>
+  </si>
+  <si>
+    <t>Total number of test cases executed</t>
+  </si>
+  <si>
+    <t>Total number of test cases passed</t>
+  </si>
+  <si>
+    <t>Total number of test cases failed</t>
+  </si>
+  <si>
+    <t>Remark:</t>
+  </si>
+  <si>
+    <t>Details:</t>
+  </si>
+  <si>
+    <r>
+      <t>Passed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Failed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Blocked:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Requirement Traceability Matrix</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>ED_BR_01</t>
+  </si>
+  <si>
+    <t>ED_BR_02</t>
+  </si>
+  <si>
+    <t>ED_BR_03</t>
+  </si>
+  <si>
+    <t>ED_BR_04</t>
+  </si>
+  <si>
+    <t>ED_BR_05</t>
+  </si>
+  <si>
+    <t>This document captures the activities performed as part of testing the “Discover 
+Top Categories” module of the Edureka application.</t>
+  </si>
+  <si>
+    <t>5. Types of Testing Performed</t>
+  </si>
+  <si>
+    <t>Verified navigation and display of categories.</t>
+  </si>
+  <si>
+    <r>
+      <t>Functional Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UI Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+  </si>
+  <si>
+    <t>Checked layout and responsiveness of category section.</t>
+  </si>
+  <si>
+    <r>
+      <t>Integration Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+  </si>
+  <si>
+    <t>Ensured smooth transition between homepage and category pages.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usability Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+  </si>
+  <si>
+    <t>Confirmed intuitive navigation for end users.</t>
+  </si>
+  <si>
+    <t>6. Test Environment and Tools Us</t>
+  </si>
+  <si>
+    <t>Application URL:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.edureka.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools Used: </t>
+  </si>
+  <si>
+    <t>MS Excel, Jira for defect tracking</t>
+  </si>
+  <si>
+    <t>7. Recommendations and Suggestions</t>
+  </si>
+  <si>
+    <t>Improve error handling for brochure download failures.</t>
+  </si>
+  <si>
+    <t>Optimize category page loading time for better user experience.</t>
+  </si>
+  <si>
+    <t>8. Exit Criteria</t>
+  </si>
+  <si>
+    <t>All planned test cases executed.</t>
+  </si>
+  <si>
+    <t>No critical defects impacting core functionality.</t>
+  </si>
+  <si>
+    <t>All identified issues documented for resolution.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. Sign-Off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Considering the nature of the identified defect as low severity and completion of
+ all planned test cases, the testing team recommends proceeding with the
+ release of the Discover Top Categories module.</t>
+  </si>
+  <si>
+    <t>All test steps were executed successfully except one failure in phone number validation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +1093,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -524,12 +1183,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -537,31 +1196,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -575,6 +1364,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C478FF6A-8F91-8CEC-F0C3-2087C4C3AE2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="901700" y="7178772"/>
+          <a:ext cx="7137400" cy="2587528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -900,7 +1738,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18.90625" customWidth="1"/>
     <col min="2" max="2" width="26.81640625" customWidth="1"/>
@@ -908,7 +1746,7 @@
     <col min="4" max="4" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -916,12 +1754,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -929,7 +1767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -943,7 +1781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -951,7 +1789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -959,7 +1797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -967,7 +1805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -975,7 +1813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -983,7 +1821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -995,13 +1833,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CDAA3B-B93B-47AA-8905-F729F9F62F6F}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="C1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="C5" zoomScale="112" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="12.08984375" customWidth="1"/>
@@ -1011,173 +1849,97 @@
     <col min="6" max="6" width="60.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="5" spans="3:6" ht="58">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
+    </row>
+    <row r="6" spans="3:6" ht="101.5">
+      <c r="C6" s="6"/>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="7" spans="3:6" ht="43.5">
+      <c r="C7" s="6"/>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="8" spans="3:6" ht="58">
+      <c r="C8" s="6"/>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1189,13 +1951,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2AB298-9467-4390-B8F6-94F1DA56B719}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="27.36328125" customWidth="1"/>
@@ -1205,371 +1967,123 @@
     <col min="8" max="8" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5">
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5">
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5">
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5">
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5">
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1578,13 +2092,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFA970B-4D69-4C41-96E1-FDB9F8C172DE}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="25.26953125" customWidth="1"/>
     <col min="2" max="2" width="31.81640625" customWidth="1"/>
@@ -1595,29 +2109,20 @@
     <col min="7" max="7" width="28.453125" customWidth="1"/>
     <col min="8" max="8" width="28.1796875" customWidth="1"/>
     <col min="9" max="9" width="17.6328125" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" customWidth="1"/>
     <col min="11" max="11" width="17.453125" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:12" ht="18.5">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1655,8 +2160,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
@@ -1680,18 +2185,18 @@
       <c r="H3" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" t="s">
         <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>65</v>
       </c>
@@ -1699,32 +2204,32 @@
         <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
         <v>95</v>
       </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
         <v>74</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>66</v>
       </c>
@@ -1732,32 +2237,34 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I5" t="s">
         <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="B6" t="s">
         <v>67</v>
       </c>
@@ -1765,324 +2272,1339 @@
         <v>77</v>
       </c>
       <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" t="s">
         <v>74</v>
       </c>
       <c r="J6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="7"/>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
       <c r="C7" t="s">
         <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" t="s">
         <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
       <c r="C8" t="s">
         <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s">
         <v>74</v>
       </c>
       <c r="J8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="7"/>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
       <c r="C9" t="s">
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s">
         <v>103</v>
       </c>
-      <c r="F9" t="s">
-        <v>104</v>
-      </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
         <v>74</v>
       </c>
       <c r="J9" t="s">
-        <v>135</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="7"/>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
       <c r="C10" t="s">
         <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" t="s">
         <v>74</v>
       </c>
       <c r="J10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="7"/>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
       <c r="C12" t="s">
         <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" t="s">
         <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
       <c r="C13" t="s">
         <v>84</v>
       </c>
       <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" t="s">
         <v>92</v>
       </c>
-      <c r="E13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" t="s">
         <v>74</v>
       </c>
       <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="7"/>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
       <c r="C14" t="s">
         <v>85</v>
       </c>
       <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="29">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" t="s">
         <v>93</v>
       </c>
-      <c r="E14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="8" t="s">
+      <c r="E15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s">
         <v>74</v>
       </c>
-      <c r="J14" t="s">
-        <v>137</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="29">
+      <c r="A16" s="7"/>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="43.5">
+      <c r="A17" s="7"/>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="43.5">
+      <c r="A18" s="7"/>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" t="s">
-        <v>129</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="G18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" t="s">
         <v>74</v>
       </c>
-      <c r="J15" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" t="s">
-        <v>130</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>139</v>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A6"/>
+  <mergeCells count="5">
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55EBA07-2D8F-4570-A922-984B734E77FA}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="31.36328125" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" customWidth="1"/>
+    <col min="4" max="4" width="53.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" customWidth="1"/>
+    <col min="9" max="10" width="18.36328125" customWidth="1"/>
+    <col min="12" max="12" width="19.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="10" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="188.5">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="13">
+        <v>45967</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="K2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{2DB920DB-C4FD-4BB9-992B-01AFA58BCED0}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{DA830293-EBC1-47D6-91C1-242CBF53ACD2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B639FA-7A1F-461A-9C72-C4CEAD957963}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="6" max="6" width="35.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A4:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E5CEB5-B742-4608-B714-94020457CDF2}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D6:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="31">
+      <c r="A1" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1">
+      <c r="A2" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="116">
+      <c r="A3" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="14">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14">
+        <v>14</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="H3" s="16">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="I3" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB075D5F-B3B1-41F6-935A-824C149D8B21}">
+  <dimension ref="A1:L74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="65.54296875" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28.5">
+      <c r="B1" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="3" spans="1:12" ht="43.5">
+      <c r="A3" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="24" customFormat="1"/>
+    <row r="5" spans="1:12" ht="58.5">
+      <c r="A5" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45">
+      <c r="A7" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" ht="58">
+      <c r="A8" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="29">
+      <c r="A9" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="58">
+      <c r="A10" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.5">
+      <c r="A12" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="29">
+      <c r="A15" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="29">
+      <c r="A16" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29">
+      <c r="A17" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29">
+      <c r="A18" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.5">
+      <c r="A37" s="22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="37"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.5">
+      <c r="A43" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="27"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="27"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F48" s="27"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="27"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.5">
+      <c r="A52" s="22"/>
+      <c r="B52" s="29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="37"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16">
+      <c r="B59" s="39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17.5">
+      <c r="A64" s="22"/>
+      <c r="B64" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="37"/>
+      <c r="B65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="37"/>
+      <c r="B66" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17.5">
+      <c r="B68" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" s="37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" s="37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="32">
+      <c r="B73" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="58">
+      <c r="B74" s="40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>